--- a/ruth_greenberg.xlsx
+++ b/ruth_greenberg.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raddick/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\sportsball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ruth 1927" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="greenberg1938" localSheetId="1">'Greenberg 1938'!$A$1:$AJ$156</definedName>
     <definedName name="ruth1927" localSheetId="0">'Ruth 1927'!$A$1:$AG$152</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -916,7 +916,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -960,12 +960,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1008,7 +1011,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,474 +1091,479 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B85-405E-ADF5-C9F16DB45910}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1603,474 +1610,479 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B85-405E-ADF5-C9F16DB45910}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2091,7 +2103,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2183,7 +2194,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2213,6 +2223,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2263,7 +2274,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2331,7 +2341,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2370,7 +2380,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2451,474 +2460,479 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>103.0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>109.0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>116.0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>117.0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>131.0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>131.0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>137.0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E4-4522-8A7D-EFFC7BD5012D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2965,474 +2979,479 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>102.0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>111.0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>116.0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>123.0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2E4-4522-8A7D-EFFC7BD5012D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3453,7 +3472,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3545,7 +3563,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3575,6 +3592,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3625,7 +3643,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3693,7 +3710,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3732,7 +3749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3813,19 +3829,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>3.142857142857143</c:v>
+                  <c:v>3.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>3.285714285714286</c:v>
+                  <c:v>3.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>3.428571428571428</c:v>
+                  <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>3.571428571428572</c:v>
+                  <c:v>3.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>3.125</c:v>
@@ -3849,13 +3865,13 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00">
-                  <c:v>3.181818181818182</c:v>
+                  <c:v>3.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00">
-                  <c:v>3.454545454545455</c:v>
+                  <c:v>3.4545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
-                  <c:v>3.454545454545455</c:v>
+                  <c:v>3.4545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00">
                   <c:v>3.25</c:v>
@@ -3864,58 +3880,58 @@
                   <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00">
-                  <c:v>3.076923076923077</c:v>
+                  <c:v>3.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>3.076923076923077</c:v>
+                  <c:v>3.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00">
-                  <c:v>3.230769230769231</c:v>
+                  <c:v>3.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00">
-                  <c:v>3.307692307692307</c:v>
+                  <c:v>3.3076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>3.307692307692307</c:v>
+                  <c:v>3.3076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00">
-                  <c:v>3.307692307692307</c:v>
+                  <c:v>3.3076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00">
-                  <c:v>3.384615384615385</c:v>
+                  <c:v>3.3846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
-                  <c:v>3.461538461538462</c:v>
+                  <c:v>3.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00">
-                  <c:v>3.461538461538462</c:v>
+                  <c:v>3.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00">
-                  <c:v>3.538461538461538</c:v>
+                  <c:v>3.5384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00">
-                  <c:v>3.692307692307692</c:v>
+                  <c:v>3.6923076923076925</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00">
-                  <c:v>3.571428571428572</c:v>
+                  <c:v>3.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00">
-                  <c:v>3.714285714285714</c:v>
+                  <c:v>3.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00">
-                  <c:v>3.857142857142857</c:v>
+                  <c:v>3.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
-                  <c:v>3.857142857142857</c:v>
+                  <c:v>3.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00">
-                  <c:v>3.666666666666666</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00">
                   <c:v>3.4375</c:v>
@@ -3930,16 +3946,16 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00">
-                  <c:v>3.411764705882352</c:v>
+                  <c:v>3.4117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00">
-                  <c:v>3.222222222222222</c:v>
+                  <c:v>3.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00">
                   <c:v>3.1</c:v>
@@ -3948,214 +3964,214 @@
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00">
-                  <c:v>2.952380952380952</c:v>
+                  <c:v>2.9523809523809526</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00">
-                  <c:v>2.863636363636364</c:v>
+                  <c:v>2.8636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00">
-                  <c:v>2.863636363636364</c:v>
+                  <c:v>2.8636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00">
-                  <c:v>2.863636363636364</c:v>
+                  <c:v>2.8636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00">
-                  <c:v>2.954545454545455</c:v>
+                  <c:v>2.9545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00">
-                  <c:v>3.090909090909091</c:v>
+                  <c:v>3.0909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="0.00">
                   <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00">
-                  <c:v>2.730769230769231</c:v>
+                  <c:v>2.7307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00">
-                  <c:v>2.76923076923077</c:v>
+                  <c:v>2.7692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00">
-                  <c:v>2.76923076923077</c:v>
+                  <c:v>2.7692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00">
-                  <c:v>2.807692307692307</c:v>
+                  <c:v>2.8076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00">
-                  <c:v>2.740740740740741</c:v>
+                  <c:v>2.7407407407407409</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="0.00">
-                  <c:v>2.678571428571428</c:v>
+                  <c:v>2.6785714285714284</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="0.00">
-                  <c:v>2.785714285714286</c:v>
+                  <c:v>2.7857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="0.00">
-                  <c:v>2.821428571428572</c:v>
+                  <c:v>2.8214285714285716</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00">
-                  <c:v>2.857142857142857</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00">
-                  <c:v>2.793103448275862</c:v>
+                  <c:v>2.7931034482758621</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00">
-                  <c:v>2.827586206896551</c:v>
+                  <c:v>2.8275862068965516</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00">
-                  <c:v>2.709677419354838</c:v>
+                  <c:v>2.7096774193548385</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00">
-                  <c:v>2.545454545454545</c:v>
+                  <c:v>2.5454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00">
                   <c:v>2.606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00">
-                  <c:v>2.485714285714286</c:v>
+                  <c:v>2.4857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00">
-                  <c:v>2.444444444444445</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="0.00">
-                  <c:v>2.378378378378378</c:v>
+                  <c:v>2.3783783783783785</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="0.00">
-                  <c:v>2.432432432432432</c:v>
+                  <c:v>2.4324324324324325</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="0.00">
-                  <c:v>2.432432432432432</c:v>
+                  <c:v>2.4324324324324325</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="0.00">
-                  <c:v>2.486486486486486</c:v>
+                  <c:v>2.4864864864864864</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="0.00">
-                  <c:v>2.513513513513514</c:v>
+                  <c:v>2.5135135135135136</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="0.00">
-                  <c:v>2.54054054054054</c:v>
+                  <c:v>2.5405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="0.00">
-                  <c:v>2.54054054054054</c:v>
+                  <c:v>2.5405405405405403</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="0.00">
-                  <c:v>2.473684210526316</c:v>
+                  <c:v>2.4736842105263159</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="0.00">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="0.00">
-                  <c:v>2.526315789473684</c:v>
+                  <c:v>2.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="101" formatCode="0.00">
-                  <c:v>2.526315789473684</c:v>
+                  <c:v>2.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="102" formatCode="0.00">
-                  <c:v>2.526315789473684</c:v>
+                  <c:v>2.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="103" formatCode="0.00">
-                  <c:v>2.552631578947368</c:v>
+                  <c:v>2.5526315789473686</c:v>
                 </c:pt>
                 <c:pt idx="104" formatCode="0.00">
-                  <c:v>2.552631578947368</c:v>
+                  <c:v>2.5526315789473686</c:v>
                 </c:pt>
                 <c:pt idx="105" formatCode="0.00">
-                  <c:v>2.578947368421052</c:v>
+                  <c:v>2.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="106" formatCode="0.00">
-                  <c:v>2.605263157894737</c:v>
+                  <c:v>2.6052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="107" formatCode="0.00">
-                  <c:v>2.657894736842105</c:v>
+                  <c:v>2.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="108" formatCode="0.00">
-                  <c:v>2.525</c:v>
+                  <c:v>2.5249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="0.00">
-                  <c:v>2.51219512195122</c:v>
+                  <c:v>2.5121951219512195</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="0.00">
-                  <c:v>2.536585365853659</c:v>
+                  <c:v>2.5365853658536586</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="0.00">
-                  <c:v>2.476190476190476</c:v>
+                  <c:v>2.4761904761904763</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="0.00">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="0.00">
-                  <c:v>2.465116279069767</c:v>
+                  <c:v>2.4651162790697674</c:v>
                 </c:pt>
                 <c:pt idx="114" formatCode="0.00">
-                  <c:v>2.465116279069767</c:v>
+                  <c:v>2.4651162790697674</c:v>
                 </c:pt>
                 <c:pt idx="115" formatCode="0.00">
-                  <c:v>2.488372093023256</c:v>
+                  <c:v>2.4883720930232558</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="0.00">
-                  <c:v>2.534883720930233</c:v>
+                  <c:v>2.5348837209302326</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="0.00">
-                  <c:v>2.604651162790698</c:v>
+                  <c:v>2.6046511627906979</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="0.00">
-                  <c:v>2.568181818181818</c:v>
+                  <c:v>2.5681818181818183</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="0.00">
-                  <c:v>2.533333333333333</c:v>
+                  <c:v>2.5333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="0.00">
-                  <c:v>2.555555555555555</c:v>
+                  <c:v>2.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="0.00">
-                  <c:v>2.577777777777777</c:v>
+                  <c:v>2.5777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="122" formatCode="0.00">
-                  <c:v>2.543478260869565</c:v>
+                  <c:v>2.5434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="0.00">
-                  <c:v>2.565217391304348</c:v>
+                  <c:v>2.5652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="0.00">
-                  <c:v>2.565217391304348</c:v>
+                  <c:v>2.5652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="0.00">
-                  <c:v>2.608695652173913</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="0.00">
-                  <c:v>2.608695652173913</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="0.00">
-                  <c:v>2.608695652173913</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="0.00">
-                  <c:v>2.608695652173913</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="0.00">
-                  <c:v>2.608695652173913</c:v>
+                  <c:v>2.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="0.00">
-                  <c:v>2.673913043478261</c:v>
+                  <c:v>2.6739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="0.00">
-                  <c:v>2.638297872340425</c:v>
+                  <c:v>2.6382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="0.00">
-                  <c:v>2.571428571428572</c:v>
+                  <c:v>2.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="0.00">
-                  <c:v>2.571428571428572</c:v>
+                  <c:v>2.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="0.00">
                   <c:v>2.52</c:v>
@@ -4170,60 +4186,65 @@
                   <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="0.00">
-                  <c:v>2.490196078431372</c:v>
+                  <c:v>2.4901960784313726</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="0.00">
-                  <c:v>2.452830188679245</c:v>
+                  <c:v>2.4528301886792452</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="0.00">
-                  <c:v>2.471698113207547</c:v>
+                  <c:v>2.4716981132075473</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="0.00">
-                  <c:v>2.471698113207547</c:v>
+                  <c:v>2.4716981132075473</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="0.00">
-                  <c:v>2.444444444444445</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="0.00">
-                  <c:v>2.444444444444445</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="0.00">
-                  <c:v>2.444444444444445</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="0.00">
                   <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="0.00">
-                  <c:v>2.410714285714286</c:v>
+                  <c:v>2.4107142857142856</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="0.00">
-                  <c:v>2.410714285714286</c:v>
+                  <c:v>2.4107142857142856</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="0.00">
-                  <c:v>2.410714285714286</c:v>
+                  <c:v>2.4107142857142856</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="0.00">
-                  <c:v>2.344827586206896</c:v>
+                  <c:v>2.3448275862068964</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="0.00">
-                  <c:v>2.362068965517241</c:v>
+                  <c:v>2.3620689655172415</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="0.00">
-                  <c:v>2.362068965517241</c:v>
+                  <c:v>2.3620689655172415</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="0.00">
-                  <c:v>2.362068965517241</c:v>
+                  <c:v>2.3620689655172415</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="0.00">
-                  <c:v>2.362068965517241</c:v>
+                  <c:v>2.3620689655172415</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="0.00">
-                  <c:v>2.362068965517241</c:v>
+                  <c:v>2.3620689655172415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBED-4E50-937F-A754CB0A990B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4270,19 +4291,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>3.285714285714286</c:v>
+                  <c:v>3.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>3.428571428571428</c:v>
+                  <c:v>3.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>3.571428571428572</c:v>
+                  <c:v>3.5714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>3.714285714285714</c:v>
+                  <c:v>3.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
                   <c:v>3.5</c:v>
@@ -4306,73 +4327,73 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00">
-                  <c:v>3.181818181818182</c:v>
+                  <c:v>3.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
-                  <c:v>3.363636363636364</c:v>
+                  <c:v>3.3636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00">
-                  <c:v>3.083333333333333</c:v>
+                  <c:v>3.0833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00">
-                  <c:v>3.083333333333333</c:v>
+                  <c:v>3.0833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00">
-                  <c:v>2.846153846153846</c:v>
+                  <c:v>2.8461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
-                  <c:v>3.076923076923077</c:v>
+                  <c:v>3.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00">
-                  <c:v>3.076923076923077</c:v>
+                  <c:v>3.0769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00">
-                  <c:v>3.153846153846154</c:v>
+                  <c:v>3.1538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00">
-                  <c:v>3.307692307692307</c:v>
+                  <c:v>3.3076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00">
-                  <c:v>3.071428571428572</c:v>
+                  <c:v>3.0714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00">
-                  <c:v>3.142857142857143</c:v>
+                  <c:v>3.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00">
-                  <c:v>3.142857142857143</c:v>
+                  <c:v>3.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
-                  <c:v>3.214285714285714</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00">
                   <c:v>2.8125</c:v>
@@ -4384,13 +4405,13 @@
                   <c:v>2.9375</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00">
-                  <c:v>2.882352941176471</c:v>
+                  <c:v>2.8823529411764706</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00">
-                  <c:v>2.777777777777777</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00">
                   <c:v>2.7</c:v>
@@ -4405,109 +4426,109 @@
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00">
-                  <c:v>2.761904761904762</c:v>
+                  <c:v>2.7619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00">
-                  <c:v>2.681818181818182</c:v>
+                  <c:v>2.6818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00">
-                  <c:v>2.727272727272727</c:v>
+                  <c:v>2.7272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00">
-                  <c:v>2.727272727272727</c:v>
+                  <c:v>2.7272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00">
-                  <c:v>2.727272727272727</c:v>
+                  <c:v>2.7272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00">
-                  <c:v>2.818181818181818</c:v>
+                  <c:v>2.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00">
-                  <c:v>2.818181818181818</c:v>
+                  <c:v>2.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00">
-                  <c:v>2.739130434782609</c:v>
+                  <c:v>2.7391304347826089</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00">
-                  <c:v>2.782608695652174</c:v>
+                  <c:v>2.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="0.00">
                   <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00">
-                  <c:v>2.538461538461538</c:v>
+                  <c:v>2.5384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00">
-                  <c:v>2.538461538461538</c:v>
+                  <c:v>2.5384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00">
-                  <c:v>2.576923076923077</c:v>
+                  <c:v>2.5769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00">
-                  <c:v>2.576923076923077</c:v>
+                  <c:v>2.5769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00">
-                  <c:v>2.576923076923077</c:v>
+                  <c:v>2.5769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00">
-                  <c:v>2.518518518518519</c:v>
+                  <c:v>2.5185185185185186</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="0.00">
-                  <c:v>2.428571428571428</c:v>
+                  <c:v>2.4285714285714284</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="0.00">
-                  <c:v>2.464285714285714</c:v>
+                  <c:v>2.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="0.00">
-                  <c:v>2.464285714285714</c:v>
+                  <c:v>2.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00">
-                  <c:v>2.464285714285714</c:v>
+                  <c:v>2.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00">
-                  <c:v>2.379310344827586</c:v>
+                  <c:v>2.3793103448275863</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00">
-                  <c:v>2.413793103448276</c:v>
+                  <c:v>2.4137931034482758</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00">
-                  <c:v>2.258064516129032</c:v>
+                  <c:v>2.2580645161290325</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00">
-                  <c:v>2.151515151515151</c:v>
+                  <c:v>2.1515151515151514</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00">
-                  <c:v>2.181818181818182</c:v>
+                  <c:v>2.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00">
-                  <c:v>2.057142857142857</c:v>
+                  <c:v>2.0571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00">
-                  <c:v>2.055555555555555</c:v>
+                  <c:v>2.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="0.00">
-                  <c:v>2.027027027027027</c:v>
+                  <c:v>2.0270270270270272</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="0.00">
-                  <c:v>2.054054054054054</c:v>
+                  <c:v>2.0540540540540539</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="0.00">
-                  <c:v>2.054054054054054</c:v>
+                  <c:v>2.0540540540540539</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="0.00">
-                  <c:v>2.108108108108108</c:v>
+                  <c:v>2.1081081081081079</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="0.00">
-                  <c:v>2.108108108108108</c:v>
+                  <c:v>2.1081081081081079</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="0.00">
                   <c:v>2.189189189189189</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="0.00">
-                  <c:v>2.216216216216216</c:v>
+                  <c:v>2.2162162162162162</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="0.00">
-                  <c:v>2.184210526315789</c:v>
+                  <c:v>2.1842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="0.00">
                   <c:v>2.236842105263158</c:v>
@@ -4540,147 +4561,152 @@
                   <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="0.00">
-                  <c:v>2.146341463414634</c:v>
+                  <c:v>2.1463414634146343</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="0.00">
-                  <c:v>2.170731707317073</c:v>
+                  <c:v>2.1707317073170733</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="0.00">
-                  <c:v>2.142857142857143</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="0.00">
-                  <c:v>2.142857142857143</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="0.00">
-                  <c:v>2.093023255813953</c:v>
+                  <c:v>2.0930232558139537</c:v>
                 </c:pt>
                 <c:pt idx="114" formatCode="0.00">
-                  <c:v>2.116279069767442</c:v>
+                  <c:v>2.1162790697674421</c:v>
                 </c:pt>
                 <c:pt idx="115" formatCode="0.00">
-                  <c:v>2.116279069767442</c:v>
+                  <c:v>2.1162790697674421</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="0.00">
-                  <c:v>2.162790697674418</c:v>
+                  <c:v>2.1627906976744184</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="0.00">
-                  <c:v>2.186046511627907</c:v>
+                  <c:v>2.1860465116279069</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="0.00">
-                  <c:v>2.159090909090909</c:v>
+                  <c:v>2.1590909090909092</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="0.00">
-                  <c:v>2.111111111111111</c:v>
+                  <c:v>2.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="0.00">
-                  <c:v>2.155555555555555</c:v>
+                  <c:v>2.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="0.00">
-                  <c:v>2.155555555555555</c:v>
+                  <c:v>2.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="122" formatCode="0.00">
-                  <c:v>2.108695652173913</c:v>
+                  <c:v>2.1086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="0.00">
-                  <c:v>2.108695652173913</c:v>
+                  <c:v>2.1086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="0.00">
-                  <c:v>2.173913043478261</c:v>
+                  <c:v>2.1739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="0.00">
-                  <c:v>2.217391304347826</c:v>
+                  <c:v>2.2173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="0.00">
-                  <c:v>2.282608695652174</c:v>
+                  <c:v>2.2826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="0.00">
-                  <c:v>2.304347826086956</c:v>
+                  <c:v>2.3043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="0.00">
-                  <c:v>2.304347826086956</c:v>
+                  <c:v>2.3043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="0.00">
-                  <c:v>2.326086956521739</c:v>
+                  <c:v>2.3260869565217392</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="0.00">
                   <c:v>2.347826086956522</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="0.00">
-                  <c:v>2.297872340425532</c:v>
+                  <c:v>2.2978723404255321</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="0.00">
                   <c:v>2.204081632653061</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="0.00">
-                  <c:v>2.244897959183673</c:v>
+                  <c:v>2.2448979591836733</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="0.00">
-                  <c:v>2.22</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="0.00">
-                  <c:v>2.26</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="0.00">
-                  <c:v>2.26</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="0.00">
-                  <c:v>2.28</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="0.00">
-                  <c:v>2.235294117647059</c:v>
+                  <c:v>2.2352941176470589</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="0.00">
-                  <c:v>2.150943396226415</c:v>
+                  <c:v>2.1509433962264151</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="0.00">
-                  <c:v>2.150943396226415</c:v>
+                  <c:v>2.1509433962264151</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="0.00">
-                  <c:v>2.169811320754717</c:v>
+                  <c:v>2.1698113207547172</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="0.00">
-                  <c:v>2.12962962962963</c:v>
+                  <c:v>2.1296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="0.00">
-                  <c:v>2.12962962962963</c:v>
+                  <c:v>2.1296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="0.00">
-                  <c:v>2.12962962962963</c:v>
+                  <c:v>2.1296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="0.00">
-                  <c:v>2.071428571428572</c:v>
+                  <c:v>2.0714285714285716</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="0.00">
-                  <c:v>2.107142857142857</c:v>
+                  <c:v>2.1071428571428572</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="0.00">
-                  <c:v>2.107142857142857</c:v>
+                  <c:v>2.1071428571428572</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="0.00">
-                  <c:v>2.160714285714286</c:v>
+                  <c:v>2.1607142857142856</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="0.00">
-                  <c:v>2.086206896551724</c:v>
+                  <c:v>2.0862068965517242</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="0.00">
-                  <c:v>2.120689655172413</c:v>
+                  <c:v>2.1206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="0.00">
-                  <c:v>2.120689655172413</c:v>
+                  <c:v>2.1206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="0.00">
-                  <c:v>2.120689655172413</c:v>
+                  <c:v>2.1206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="0.00">
-                  <c:v>2.137931034482758</c:v>
+                  <c:v>2.1379310344827585</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="0.00">
-                  <c:v>2.155172413793104</c:v>
+                  <c:v>2.1551724137931036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBED-4E50-937F-A754CB0A990B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4701,7 +4727,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4793,7 +4818,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4823,6 +4847,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4873,7 +4898,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6612,20 +6636,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>618099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6642,20 +6672,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>619243</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6674,20 +6710,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>675941</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6984,41 +7026,41 @@
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="6.125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.1640625" customWidth="1"/>
-    <col min="35" max="35" width="13.83203125" customWidth="1"/>
+    <col min="34" max="34" width="14.125" customWidth="1"/>
+    <col min="35" max="35" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7164,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7216,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7310,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7404,7 +7446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7498,7 +7540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7592,7 +7634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7686,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7780,7 +7822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7874,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7971,7 +8013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8068,7 +8110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8165,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8262,7 +8304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8356,7 +8398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8453,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8550,7 +8592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8644,7 +8686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8741,7 +8783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8838,7 +8880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8935,7 +8977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9032,7 +9074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9129,7 +9171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9226,7 +9268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9323,7 +9365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9420,7 +9462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9517,7 +9559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9614,7 +9656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9711,7 +9753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9808,7 +9850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9905,7 +9947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10002,7 +10044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10099,7 +10141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10196,7 +10238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10293,7 +10335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10390,7 +10432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10484,7 +10526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10578,7 +10620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10672,7 +10714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10766,7 +10808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10860,7 +10902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10957,7 +10999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11054,7 +11096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11151,7 +11193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11248,7 +11290,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11345,7 +11387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11439,7 +11481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11533,7 +11575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11627,7 +11669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11721,7 +11763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11815,7 +11857,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11909,7 +11951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12003,7 +12045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12097,7 +12139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12191,7 +12233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12285,7 +12327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12379,7 +12421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12473,7 +12515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12567,7 +12609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12664,7 +12706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12761,7 +12803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12858,7 +12900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12955,7 +12997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13052,7 +13094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13146,7 +13188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13240,7 +13282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13334,7 +13376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13428,7 +13470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13522,7 +13564,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13616,7 +13658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13713,7 +13755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13807,7 +13849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13901,7 +13943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13995,7 +14037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14092,7 +14134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14189,7 +14231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14286,7 +14328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14383,7 +14425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14480,7 +14522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14577,7 +14619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14674,7 +14716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14771,7 +14813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14868,7 +14910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14965,7 +15007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15062,7 +15104,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15159,7 +15201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15256,7 +15298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15353,7 +15395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15450,7 +15492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15547,7 +15589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15644,7 +15686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15741,7 +15783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15835,7 +15877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15929,7 +15971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16023,7 +16065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16117,7 +16159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16211,7 +16253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -16305,7 +16347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -16399,7 +16441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -16493,7 +16535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16587,7 +16629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16681,7 +16723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16775,7 +16817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16869,7 +16911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16963,7 +17005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17057,7 +17099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17154,7 +17196,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17251,7 +17293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17348,7 +17390,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17445,7 +17487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17542,7 +17584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17639,7 +17681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17736,7 +17778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17833,7 +17875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17930,7 +17972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -18027,7 +18069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -18124,7 +18166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -18221,7 +18263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18318,7 +18360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18415,7 +18457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18512,7 +18554,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18609,7 +18651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18706,7 +18748,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18803,7 +18845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18897,7 +18939,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18994,7 +19036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19091,7 +19133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -19188,7 +19230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -19285,7 +19327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19382,7 +19424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19479,7 +19521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -19576,7 +19618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19670,7 +19712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19764,7 +19806,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19858,7 +19900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -19952,7 +19994,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -20046,7 +20088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -20140,7 +20182,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -20234,7 +20276,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -20328,7 +20370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -20422,7 +20464,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20516,7 +20558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20610,7 +20652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20704,7 +20746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20798,7 +20840,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20892,7 +20934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20986,7 +21028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -21080,7 +21122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -21174,7 +21216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -21268,7 +21310,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -21362,7 +21404,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -21456,7 +21498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21550,7 +21592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21563,7 +21605,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -21576,7 +21618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -21589,7 +21631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -21613,42 +21655,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="6.125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21764,7 +21806,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21880,7 +21922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21996,7 +22038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22112,7 +22154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22225,7 +22267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22338,7 +22380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22451,7 +22493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22558,7 +22600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22665,7 +22707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22772,7 +22814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22885,7 +22927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23001,7 +23043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23117,7 +23159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23233,7 +23275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23340,7 +23382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23456,7 +23498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23572,7 +23614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23688,7 +23730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23804,7 +23846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23911,7 +23953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -24018,7 +24060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -24131,7 +24173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24235,7 +24277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24339,7 +24381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24443,7 +24485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24547,7 +24589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24651,7 +24693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24755,7 +24797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24868,7 +24910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24981,7 +25023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -25094,7 +25136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25207,7 +25249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25323,7 +25365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25439,7 +25481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25546,7 +25588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -25650,7 +25692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -25754,7 +25796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -25870,7 +25912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -25977,7 +26019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -26093,7 +26135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -26209,7 +26251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -26325,7 +26367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -26441,7 +26483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -26548,7 +26590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -26664,7 +26706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -26780,7 +26822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -26896,7 +26938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27003,7 +27045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -27110,7 +27152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -27217,7 +27259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -27321,7 +27363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -27425,7 +27467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -27538,7 +27580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -27642,7 +27684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -27746,7 +27788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -27850,7 +27892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -27954,7 +27996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -28067,7 +28109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -28171,7 +28213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -28275,7 +28317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -28388,7 +28430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -28501,7 +28543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -28614,7 +28656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -28727,7 +28769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -28843,7 +28885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -28959,7 +29001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -29075,7 +29117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -29182,7 +29224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -29289,7 +29331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -29396,7 +29438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -29509,7 +29551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -29622,7 +29664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -29735,7 +29777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -29839,7 +29881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -29943,7 +29985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -30047,7 +30089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -30154,7 +30196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -30270,7 +30312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -30386,7 +30428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -30502,7 +30544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -30618,7 +30660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -30734,7 +30776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -30841,7 +30883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -30948,7 +30990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -31055,7 +31097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -31171,7 +31213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -31287,7 +31329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -31391,7 +31433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -31495,7 +31537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -31599,7 +31641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -31703,7 +31745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -31807,7 +31849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -31911,7 +31953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -32024,7 +32066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -32137,7 +32179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -32250,7 +32292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -32363,7 +32405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -32467,7 +32509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -32571,7 +32613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -32675,7 +32717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -32782,7 +32824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -32889,7 +32931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -32996,7 +33038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -33103,7 +33145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -33210,7 +33252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -33317,7 +33359,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -33421,7 +33463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -33525,7 +33567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -33629,7 +33671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -33742,7 +33784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -33846,7 +33888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -33959,7 +34001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -34063,7 +34105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -34179,7 +34221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -34295,7 +34337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -34411,7 +34453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -34527,7 +34569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -34634,7 +34676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -34741,7 +34783,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -34848,7 +34890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -34955,7 +34997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -35071,7 +35113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -35187,7 +35229,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -35303,7 +35345,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -35419,7 +35461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -35526,7 +35568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -35633,7 +35675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -35740,7 +35782,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -35847,7 +35889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -35960,7 +36002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -36073,7 +36115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -36189,7 +36231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -36305,7 +36347,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -36409,7 +36451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -36513,7 +36555,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -36617,7 +36659,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -36721,7 +36763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -36825,7 +36867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -36938,7 +36980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -37051,7 +37093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -37164,7 +37206,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -37268,7 +37310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -37372,7 +37414,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -37485,7 +37527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -37589,7 +37631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -37693,7 +37735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -37797,7 +37839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -37901,7 +37943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -38005,7 +38047,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -38109,7 +38151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -38213,7 +38255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -38317,7 +38359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -38421,7 +38463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -38528,7 +38570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -38635,7 +38677,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -38751,18 +38793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G55" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -38785,7 +38827,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38806,7 +38848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38827,7 +38869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38848,7 +38890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38869,7 +38911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38890,7 +38932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38911,7 +38953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38932,7 +38974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38953,7 +38995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38974,7 +39016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38995,7 +39037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -39016,7 +39058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -39037,7 +39079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -39058,7 +39100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -39079,7 +39121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -39100,7 +39142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -39121,7 +39163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -39142,7 +39184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -39163,7 +39205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -39184,7 +39226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -39213,7 +39255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -39242,7 +39284,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -39271,7 +39313,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -39300,7 +39342,7 @@
         <v>3.5714285714285716</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -39329,7 +39371,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -39358,7 +39400,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -39387,7 +39429,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -39416,7 +39458,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -39445,7 +39487,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -39474,7 +39516,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -39503,7 +39545,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -39532,7 +39574,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39561,7 +39603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39590,7 +39632,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39619,7 +39661,7 @@
         <v>3.3636363636363638</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -39648,7 +39690,7 @@
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -39677,7 +39719,7 @@
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39706,7 +39748,7 @@
         <v>2.8461538461538463</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39735,7 +39777,7 @@
         <v>2.8461538461538463</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -39764,7 +39806,7 @@
         <v>2.8461538461538463</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -39793,7 +39835,7 @@
         <v>2.8461538461538463</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -39822,7 +39864,7 @@
         <v>2.8461538461538463</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39851,7 +39893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39880,7 +39922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39909,7 +39951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39938,7 +39980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39967,7 +40009,7 @@
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39996,7 +40038,7 @@
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -40025,7 +40067,7 @@
         <v>3.1538461538461537</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -40054,7 +40096,7 @@
         <v>3.3076923076923075</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -40083,7 +40125,7 @@
         <v>3.0714285714285716</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -40112,7 +40154,7 @@
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -40141,7 +40183,7 @@
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -40170,7 +40212,7 @@
         <v>3.2142857142857144</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -40199,7 +40241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -40228,7 +40270,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -40257,7 +40299,7 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -40286,7 +40328,7 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -40315,7 +40357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -40344,7 +40386,7 @@
         <v>2.8823529411764706</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -40373,7 +40415,7 @@
         <v>2.7777777777777777</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -40402,7 +40444,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -40431,7 +40473,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -40460,7 +40502,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -40489,7 +40531,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -40518,7 +40560,7 @@
         <v>2.7619047619047619</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -40547,7 +40589,7 @@
         <v>2.6818181818181817</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40576,7 +40618,7 @@
         <v>2.7272727272727271</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40605,7 +40647,7 @@
         <v>2.7272727272727271</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40634,7 +40676,7 @@
         <v>2.7272727272727271</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -40663,7 +40705,7 @@
         <v>2.8181818181818183</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -40692,7 +40734,7 @@
         <v>2.8181818181818183</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -40721,7 +40763,7 @@
         <v>2.7391304347826089</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -40750,7 +40792,7 @@
         <v>2.7826086956521738</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -40779,7 +40821,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -40808,7 +40850,7 @@
         <v>2.5384615384615383</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -40837,7 +40879,7 @@
         <v>2.5384615384615383</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -40866,7 +40908,7 @@
         <v>2.5769230769230771</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -40895,7 +40937,7 @@
         <v>2.5769230769230771</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -40924,7 +40966,7 @@
         <v>2.5769230769230771</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -40953,7 +40995,7 @@
         <v>2.5185185185185186</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -40982,7 +41024,7 @@
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -41011,7 +41053,7 @@
         <v>2.4642857142857144</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -41040,7 +41082,7 @@
         <v>2.4642857142857144</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -41069,7 +41111,7 @@
         <v>2.4642857142857144</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -41098,7 +41140,7 @@
         <v>2.3793103448275863</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -41127,7 +41169,7 @@
         <v>2.4137931034482758</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -41156,7 +41198,7 @@
         <v>2.2580645161290325</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -41185,7 +41227,7 @@
         <v>2.1515151515151514</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -41214,7 +41256,7 @@
         <v>2.1818181818181817</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -41243,7 +41285,7 @@
         <v>2.0571428571428569</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -41272,7 +41314,7 @@
         <v>2.0555555555555554</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -41301,7 +41343,7 @@
         <v>2.0270270270270272</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -41330,7 +41372,7 @@
         <v>2.0540540540540539</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -41359,7 +41401,7 @@
         <v>2.0540540540540539</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -41388,7 +41430,7 @@
         <v>2.1081081081081079</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -41417,7 +41459,7 @@
         <v>2.1081081081081079</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -41446,7 +41488,7 @@
         <v>2.189189189189189</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -41475,7 +41517,7 @@
         <v>2.2162162162162162</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -41504,7 +41546,7 @@
         <v>2.1842105263157894</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -41533,7 +41575,7 @@
         <v>2.236842105263158</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -41562,7 +41604,7 @@
         <v>2.236842105263158</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -41591,7 +41633,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -41620,7 +41662,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -41649,7 +41691,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -41678,7 +41720,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -41707,7 +41749,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -41736,7 +41778,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -41765,7 +41807,7 @@
         <v>2.263157894736842</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -41794,7 +41836,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -41823,7 +41865,7 @@
         <v>2.1463414634146343</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -41852,7 +41894,7 @@
         <v>2.1707317073170733</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -41881,7 +41923,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -41910,7 +41952,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -41939,7 +41981,7 @@
         <v>2.0930232558139537</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -41968,7 +42010,7 @@
         <v>2.1162790697674421</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -41997,7 +42039,7 @@
         <v>2.1162790697674421</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -42026,7 +42068,7 @@
         <v>2.1627906976744184</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -42055,7 +42097,7 @@
         <v>2.1860465116279069</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -42084,7 +42126,7 @@
         <v>2.1590909090909092</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -42113,7 +42155,7 @@
         <v>2.1111111111111112</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -42142,7 +42184,7 @@
         <v>2.1555555555555554</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -42171,7 +42213,7 @@
         <v>2.1555555555555554</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -42200,7 +42242,7 @@
         <v>2.1086956521739131</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -42229,7 +42271,7 @@
         <v>2.1086956521739131</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -42258,7 +42300,7 @@
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -42287,7 +42329,7 @@
         <v>2.2173913043478262</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -42316,7 +42358,7 @@
         <v>2.2826086956521738</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -42345,7 +42387,7 @@
         <v>2.3043478260869565</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -42374,7 +42416,7 @@
         <v>2.3043478260869565</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -42403,7 +42445,7 @@
         <v>2.3260869565217392</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -42432,7 +42474,7 @@
         <v>2.347826086956522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -42461,7 +42503,7 @@
         <v>2.2978723404255321</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -42490,7 +42532,7 @@
         <v>2.204081632653061</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -42519,7 +42561,7 @@
         <v>2.2448979591836733</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -42548,7 +42590,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -42577,7 +42619,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -42606,7 +42648,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -42635,7 +42677,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -42664,7 +42706,7 @@
         <v>2.2352941176470589</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -42693,7 +42735,7 @@
         <v>2.1509433962264151</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -42722,7 +42764,7 @@
         <v>2.1509433962264151</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -42751,7 +42793,7 @@
         <v>2.1698113207547172</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -42780,7 +42822,7 @@
         <v>2.1296296296296298</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -42809,7 +42851,7 @@
         <v>2.1296296296296298</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -42838,7 +42880,7 @@
         <v>2.1296296296296298</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -42867,7 +42909,7 @@
         <v>2.0714285714285716</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -42896,7 +42938,7 @@
         <v>2.1071428571428572</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -42925,7 +42967,7 @@
         <v>2.1071428571428572</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -42954,7 +42996,7 @@
         <v>2.1607142857142856</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -42983,7 +43025,7 @@
         <v>2.0862068965517242</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -43012,7 +43054,7 @@
         <v>2.1206896551724137</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -43041,7 +43083,7 @@
         <v>2.1206896551724137</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -43070,7 +43112,7 @@
         <v>2.1206896551724137</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -43099,7 +43141,7 @@
         <v>2.1379310344827585</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -43130,6 +43172,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>